--- a/headers_dict.xlsx
+++ b/headers_dict.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredde/Dropbox/GitHub/ML-FO_Flow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\github\ML-FO_Flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24500" windowHeight="15580"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="24495" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -65,18 +65,6 @@
     <t>ae4_cac_ca</t>
   </si>
   <si>
-    <t>ae1_exh</t>
-  </si>
-  <si>
-    <t>ae2_exh</t>
-  </si>
-  <si>
-    <t>ae3_exh</t>
-  </si>
-  <si>
-    <t>ae4_exh</t>
-  </si>
-  <si>
     <t>ae1_fo_P</t>
   </si>
   <si>
@@ -312,12 +300,24 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>ae1_exh_T</t>
+  </si>
+  <si>
+    <t>ae2_exh_T</t>
+  </si>
+  <si>
+    <t>ae3_exh_T</t>
+  </si>
+  <si>
+    <t>ae4_exh_T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,6 +384,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -678,393 +681,393 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
